--- a/document/api/동영상_api.xlsx
+++ b/document/api/동영상_api.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,33 @@
 baby_name:string 
 userfile:file(video)
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 경로 보내주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/video/path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">code:int
+baby_name:string
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_path:string
+*json array로 보내짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +495,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -537,8 +564,31 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>201</v>
+      </c>
+      <c r="I3">
+        <v>404</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F4" s="1"/>
